--- a/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
+++ b/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="661" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="300">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1077,12 +1077,56 @@
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>T_SYS_GROUP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS13_用户组表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_NAME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_TYPE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SYS_GROUP_USER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS14_用户组和用户关系表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_USER_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1185,7 +1229,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1331,6 +1375,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="_ET_STYLE_NoName_00_" xfId="1"/>
@@ -1350,7 +1397,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1424,7 +1471,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1459,7 +1505,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1635,14 +1680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="9.375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="10" bestFit="1" customWidth="1"/>
@@ -1652,7 +1697,7 @@
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1672,7 +1717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>43689</v>
       </c>
@@ -1697,14 +1742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="27.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
@@ -1721,7 +1766,7 @@
     <col min="14" max="16384" width="16.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1807,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
@@ -1790,11 +1835,11 @@
       <c r="J2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="51" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>118</v>
       </c>
@@ -1822,9 +1867,9 @@
       <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="50"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M3" s="51"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -1849,9 +1894,9 @@
       <c r="J4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M4" s="51"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -1876,9 +1921,9 @@
       <c r="J5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -1903,9 +1948,9 @@
       <c r="J6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="51"/>
+    </row>
+    <row r="7" spans="1:13" s="42" customFormat="1">
       <c r="B7" s="42">
         <v>6</v>
       </c>
@@ -1932,7 +1977,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="42" customFormat="1">
       <c r="B8" s="42">
         <v>7</v>
       </c>
@@ -1956,7 +2001,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="42" customFormat="1">
       <c r="B9" s="42">
         <v>8</v>
       </c>
@@ -1980,7 +2025,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="42" customFormat="1">
       <c r="B10" s="42">
         <v>9</v>
       </c>
@@ -2007,7 +2052,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="42" customFormat="1">
       <c r="B11" s="42">
         <v>10</v>
       </c>
@@ -2031,7 +2076,7 @@
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="42" customFormat="1">
       <c r="B12" s="42">
         <v>11</v>
       </c>
@@ -2055,7 +2100,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="24">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
         <v>140</v>
       </c>
@@ -2124,11 +2169,11 @@
       <c r="J14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="50" t="s">
+      <c r="M14" s="51" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -2156,9 +2201,9 @@
       <c r="J15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="50"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" s="42">
         <v>3</v>
       </c>
@@ -2183,9 +2228,9 @@
       <c r="J16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="50"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="B17" s="42">
         <v>4</v>
       </c>
@@ -2210,9 +2255,9 @@
       <c r="J17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="50"/>
-    </row>
-    <row r="18" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" s="42" customFormat="1">
       <c r="B18" s="42">
         <v>5</v>
       </c>
@@ -2239,7 +2284,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" s="42" customFormat="1">
       <c r="B19" s="42">
         <v>6</v>
       </c>
@@ -2263,7 +2308,7 @@
       </c>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" s="42" customFormat="1">
       <c r="B20" s="42">
         <v>7</v>
       </c>
@@ -2287,7 +2332,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" s="42" customFormat="1">
       <c r="B21" s="42">
         <v>8</v>
       </c>
@@ -2314,7 +2359,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" s="42" customFormat="1">
       <c r="B22" s="42">
         <v>9</v>
       </c>
@@ -2338,7 +2383,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" s="42" customFormat="1">
       <c r="B23" s="42">
         <v>10</v>
       </c>
@@ -2362,7 +2407,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="24">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2403,7 +2448,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -2431,11 +2476,11 @@
       <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="50" t="s">
+      <c r="M25" s="51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
         <v>120</v>
       </c>
@@ -2464,9 +2509,9 @@
         <v>88</v>
       </c>
       <c r="L26" s="40"/>
-      <c r="M26" s="50"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M26" s="51"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -2492,9 +2537,9 @@
         <v>87</v>
       </c>
       <c r="L27" s="40"/>
-      <c r="M27" s="50"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M27" s="51"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="B28" s="3">
         <v>4</v>
       </c>
@@ -2519,9 +2564,9 @@
       <c r="J28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="50"/>
-    </row>
-    <row r="29" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M28" s="51"/>
+    </row>
+    <row r="29" spans="1:13" s="7" customFormat="1">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -2546,9 +2591,9 @@
       <c r="J29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="50"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M29" s="51"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="B30" s="3">
         <v>6</v>
       </c>
@@ -2573,9 +2618,9 @@
       <c r="J30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="50"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M30" s="51"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="B31" s="3">
         <v>7</v>
       </c>
@@ -2600,9 +2645,9 @@
       <c r="J31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="50"/>
-    </row>
-    <row r="32" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="M31" s="51"/>
+    </row>
+    <row r="32" spans="1:13" s="28" customFormat="1">
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -2634,7 +2679,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" s="42" customFormat="1">
       <c r="B33" s="3">
         <v>9</v>
       </c>
@@ -2661,7 +2706,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" s="42" customFormat="1">
       <c r="B34" s="3">
         <v>10</v>
       </c>
@@ -2685,7 +2730,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" s="42" customFormat="1">
       <c r="B35" s="3">
         <v>11</v>
       </c>
@@ -2709,7 +2754,7 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" s="42" customFormat="1">
       <c r="B36" s="3">
         <v>12</v>
       </c>
@@ -2736,7 +2781,7 @@
       </c>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" s="42" customFormat="1">
       <c r="B37" s="3">
         <v>13</v>
       </c>
@@ -2760,7 +2805,7 @@
       </c>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" s="42" customFormat="1">
       <c r="B38" s="3">
         <v>14</v>
       </c>
@@ -2784,7 +2829,7 @@
       </c>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="24">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2870,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
         <v>112</v>
       </c>
@@ -2857,7 +2902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
         <v>121</v>
       </c>
@@ -2887,7 +2932,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13">
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -2914,7 +2959,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:13">
       <c r="B43" s="3">
         <v>4</v>
       </c>
@@ -2940,7 +2985,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:13">
       <c r="B44" s="3">
         <v>5</v>
       </c>
@@ -2967,7 +3012,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13">
       <c r="B45" s="3">
         <v>6</v>
       </c>
@@ -2995,7 +3040,7 @@
       <c r="K45" s="18"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" s="24" customFormat="1">
       <c r="B46" s="3">
         <v>7</v>
       </c>
@@ -3022,7 +3067,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13">
       <c r="B47" s="3">
         <v>8</v>
       </c>
@@ -3049,7 +3094,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13">
       <c r="B48" s="3">
         <v>9</v>
       </c>
@@ -3075,7 +3120,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" s="33" customFormat="1">
       <c r="B49" s="3">
         <v>10</v>
       </c>
@@ -3102,7 +3147,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" s="33" customFormat="1">
       <c r="B50" s="3">
         <v>11</v>
       </c>
@@ -3128,7 +3173,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" s="37" customFormat="1">
       <c r="B51" s="3">
         <v>12</v>
       </c>
@@ -3155,7 +3200,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:13" s="37" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" s="37" customFormat="1">
       <c r="B52" s="3">
         <v>13</v>
       </c>
@@ -3182,7 +3227,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" s="33" customFormat="1">
       <c r="B53" s="3">
         <v>14</v>
       </c>
@@ -3208,7 +3253,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" s="33" customFormat="1">
       <c r="B54" s="3">
         <v>15</v>
       </c>
@@ -3235,7 +3280,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" s="42" customFormat="1">
       <c r="B55" s="3">
         <v>16</v>
       </c>
@@ -3262,7 +3307,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" s="42" customFormat="1">
       <c r="B56" s="3">
         <v>17</v>
       </c>
@@ -3286,7 +3331,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" s="42" customFormat="1">
       <c r="B57" s="3">
         <v>18</v>
       </c>
@@ -3310,7 +3355,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" s="42" customFormat="1">
       <c r="B58" s="3">
         <v>19</v>
       </c>
@@ -3337,7 +3382,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" s="42" customFormat="1">
       <c r="B59" s="3">
         <v>20</v>
       </c>
@@ -3361,7 +3406,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" s="42" customFormat="1">
       <c r="B60" s="3">
         <v>21</v>
       </c>
@@ -3385,7 +3430,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="24">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3426,7 +3471,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
@@ -3458,7 +3503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13">
       <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
@@ -3487,7 +3532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:13" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" s="32" customFormat="1">
       <c r="B64" s="3">
         <v>3</v>
       </c>
@@ -3513,7 +3558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13">
       <c r="B65" s="3">
         <v>4</v>
       </c>
@@ -3539,7 +3584,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" s="12" customFormat="1">
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -3565,7 +3610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" s="29" customFormat="1">
       <c r="B67" s="3">
         <v>6</v>
       </c>
@@ -3591,7 +3636,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" s="42" customFormat="1">
       <c r="B68" s="3">
         <v>7</v>
       </c>
@@ -3618,7 +3663,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" s="42" customFormat="1">
       <c r="B69" s="3">
         <v>8</v>
       </c>
@@ -3642,7 +3687,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" s="42" customFormat="1">
       <c r="B70" s="3">
         <v>9</v>
       </c>
@@ -3666,7 +3711,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" s="42" customFormat="1">
       <c r="B71" s="3">
         <v>10</v>
       </c>
@@ -3693,7 +3738,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" s="42" customFormat="1">
       <c r="B72" s="3">
         <v>11</v>
       </c>
@@ -3717,7 +3762,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" s="42" customFormat="1">
       <c r="B73" s="3">
         <v>12</v>
       </c>
@@ -3741,7 +3786,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" ht="24">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +3827,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13">
       <c r="A75" s="3" t="s">
         <v>150</v>
       </c>
@@ -3814,7 +3859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13">
       <c r="A76" s="3" t="s">
         <v>123</v>
       </c>
@@ -3844,7 +3889,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13">
       <c r="B77" s="3">
         <v>3</v>
       </c>
@@ -3871,7 +3916,7 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" s="13" customFormat="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3">
         <v>4</v>
@@ -3899,7 +3944,7 @@
       </c>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" s="13" customFormat="1">
       <c r="B79" s="3">
         <v>5</v>
       </c>
@@ -3927,7 +3972,7 @@
       <c r="K79" s="19"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" s="17" customFormat="1">
       <c r="B80" s="3">
         <v>6</v>
       </c>
@@ -3956,7 +4001,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:13">
       <c r="B81" s="3">
         <v>7</v>
       </c>
@@ -3984,7 +4029,7 @@
       <c r="L81" s="3"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:13">
       <c r="B82" s="3">
         <v>8</v>
       </c>
@@ -4011,7 +4056,7 @@
       </c>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:13" s="27" customFormat="1">
       <c r="B83" s="3">
         <v>9</v>
       </c>
@@ -4043,7 +4088,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:13" s="42" customFormat="1">
       <c r="B84" s="3">
         <v>10</v>
       </c>
@@ -4070,7 +4115,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:13" s="42" customFormat="1">
       <c r="B85" s="3">
         <v>11</v>
       </c>
@@ -4094,7 +4139,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:13" s="42" customFormat="1">
       <c r="B86" s="3">
         <v>12</v>
       </c>
@@ -4118,7 +4163,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:13" s="42" customFormat="1">
       <c r="B87" s="3">
         <v>13</v>
       </c>
@@ -4145,7 +4190,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:13" s="42" customFormat="1">
       <c r="B88" s="3">
         <v>14</v>
       </c>
@@ -4169,7 +4214,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:13" s="42" customFormat="1">
       <c r="B89" s="3">
         <v>15</v>
       </c>
@@ -4193,7 +4238,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:13" ht="24">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4279,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:13">
       <c r="A91" s="3" t="s">
         <v>160</v>
       </c>
@@ -4263,7 +4308,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:13">
       <c r="A92" s="3" t="s">
         <v>124</v>
       </c>
@@ -4292,7 +4337,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:13">
       <c r="B93" s="3">
         <v>3</v>
       </c>
@@ -4318,7 +4363,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:13">
       <c r="B94" s="3">
         <v>4</v>
       </c>
@@ -4344,7 +4389,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:13" s="42" customFormat="1">
       <c r="B95" s="3">
         <v>5</v>
       </c>
@@ -4371,7 +4416,7 @@
       </c>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:13" s="42" customFormat="1">
       <c r="B96" s="3">
         <v>6</v>
       </c>
@@ -4395,7 +4440,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:13" s="42" customFormat="1">
       <c r="B97" s="3">
         <v>7</v>
       </c>
@@ -4419,7 +4464,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:13" s="42" customFormat="1">
       <c r="B98" s="3">
         <v>8</v>
       </c>
@@ -4446,7 +4491,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:13" s="42" customFormat="1">
       <c r="B99" s="3">
         <v>9</v>
       </c>
@@ -4470,7 +4515,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:13" s="42" customFormat="1">
       <c r="B100" s="3">
         <v>10</v>
       </c>
@@ -4494,7 +4539,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:13" ht="24">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -4535,7 +4580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:13">
       <c r="A102" s="3" t="s">
         <v>209</v>
       </c>
@@ -4567,7 +4612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:13">
       <c r="A103" s="3" t="s">
         <v>125</v>
       </c>
@@ -4596,7 +4641,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:13">
       <c r="B104" s="3">
         <v>3</v>
       </c>
@@ -4625,7 +4670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:13">
       <c r="B105" s="3">
         <v>4</v>
       </c>
@@ -4651,7 +4696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:13" s="42" customFormat="1">
       <c r="B106" s="3">
         <v>5</v>
       </c>
@@ -4678,7 +4723,7 @@
       </c>
       <c r="L106" s="3"/>
     </row>
-    <row r="107" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:13" s="42" customFormat="1">
       <c r="B107" s="3">
         <v>6</v>
       </c>
@@ -4702,7 +4747,7 @@
       </c>
       <c r="L107" s="3"/>
     </row>
-    <row r="108" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:13" s="42" customFormat="1">
       <c r="B108" s="3">
         <v>7</v>
       </c>
@@ -4726,7 +4771,7 @@
       </c>
       <c r="L108" s="3"/>
     </row>
-    <row r="109" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:13" s="42" customFormat="1">
       <c r="B109" s="3">
         <v>8</v>
       </c>
@@ -4753,7 +4798,7 @@
       </c>
       <c r="L109" s="3"/>
     </row>
-    <row r="110" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:13" s="42" customFormat="1">
       <c r="B110" s="3">
         <v>9</v>
       </c>
@@ -4777,7 +4822,7 @@
       </c>
       <c r="L110" s="3"/>
     </row>
-    <row r="111" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:13" s="42" customFormat="1">
       <c r="B111" s="3">
         <v>10</v>
       </c>
@@ -4801,7 +4846,7 @@
       </c>
       <c r="L111" s="3"/>
     </row>
-    <row r="112" spans="1:13" s="26" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:13" s="26" customFormat="1" ht="24">
       <c r="A112" s="25" t="s">
         <v>161</v>
       </c>
@@ -4842,7 +4887,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:12" s="39" customFormat="1">
       <c r="A113" s="3" t="s">
         <v>245</v>
       </c>
@@ -4874,7 +4919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:12" s="39" customFormat="1">
       <c r="A114" s="3" t="s">
         <v>224</v>
       </c>
@@ -4904,7 +4949,7 @@
       </c>
       <c r="L114" s="3"/>
     </row>
-    <row r="115" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:12" s="39" customFormat="1">
       <c r="B115" s="3">
         <v>3</v>
       </c>
@@ -4936,7 +4981,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:12" s="39" customFormat="1">
       <c r="B116" s="3">
         <v>4</v>
       </c>
@@ -4965,7 +5010,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:12" s="39" customFormat="1">
       <c r="B117" s="3">
         <v>5</v>
       </c>
@@ -4992,7 +5037,7 @@
       </c>
       <c r="L117" s="3"/>
     </row>
-    <row r="118" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:12" s="40" customFormat="1">
       <c r="B118" s="3">
         <v>6</v>
       </c>
@@ -5019,7 +5064,7 @@
       </c>
       <c r="L118" s="3"/>
     </row>
-    <row r="119" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:12" s="39" customFormat="1">
       <c r="B119" s="3">
         <v>7</v>
       </c>
@@ -5046,7 +5091,7 @@
       </c>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" s="39" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:12" s="39" customFormat="1" ht="24">
       <c r="B120" s="3">
         <v>8</v>
       </c>
@@ -5078,7 +5123,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:12" s="39" customFormat="1">
       <c r="B121" s="3">
         <v>9</v>
       </c>
@@ -5104,7 +5149,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:12" s="39" customFormat="1">
       <c r="B122" s="3">
         <v>10</v>
       </c>
@@ -5130,7 +5175,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:12" s="39" customFormat="1">
       <c r="B123" s="3">
         <v>11</v>
       </c>
@@ -5159,7 +5204,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:12" s="39" customFormat="1">
       <c r="B124" s="3">
         <v>12</v>
       </c>
@@ -5188,7 +5233,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:12" s="42" customFormat="1">
       <c r="B125" s="3">
         <v>13</v>
       </c>
@@ -5215,7 +5260,7 @@
       </c>
       <c r="L125" s="3"/>
     </row>
-    <row r="126" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:12" s="42" customFormat="1">
       <c r="B126" s="3">
         <v>14</v>
       </c>
@@ -5239,7 +5284,7 @@
       </c>
       <c r="L126" s="3"/>
     </row>
-    <row r="127" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:12" s="42" customFormat="1">
       <c r="B127" s="3">
         <v>15</v>
       </c>
@@ -5263,7 +5308,7 @@
       </c>
       <c r="L127" s="3"/>
     </row>
-    <row r="128" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:12" s="42" customFormat="1">
       <c r="B128" s="3">
         <v>16</v>
       </c>
@@ -5290,7 +5335,7 @@
       </c>
       <c r="L128" s="3"/>
     </row>
-    <row r="129" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:13" s="42" customFormat="1">
       <c r="B129" s="3">
         <v>17</v>
       </c>
@@ -5314,7 +5359,7 @@
       </c>
       <c r="L129" s="3"/>
     </row>
-    <row r="130" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:13" s="42" customFormat="1">
       <c r="B130" s="3">
         <v>18</v>
       </c>
@@ -5338,7 +5383,7 @@
       </c>
       <c r="L130" s="3"/>
     </row>
-    <row r="131" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:13" ht="24">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -5379,7 +5424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:13">
       <c r="A132" s="3" t="s">
         <v>149</v>
       </c>
@@ -5413,7 +5458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:13">
       <c r="A133" s="3" t="s">
         <v>126</v>
       </c>
@@ -5445,7 +5490,7 @@
       <c r="K133" s="11"/>
       <c r="L133" s="3"/>
     </row>
-    <row r="134" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:13" s="30" customFormat="1">
       <c r="B134" s="3">
         <v>3</v>
       </c>
@@ -5472,7 +5517,7 @@
       </c>
       <c r="L134" s="3"/>
     </row>
-    <row r="135" spans="1:13" s="43" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:13" s="43" customFormat="1">
       <c r="B135" s="3">
         <v>3</v>
       </c>
@@ -5499,7 +5544,7 @@
       </c>
       <c r="L135" s="3"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:13">
       <c r="B136" s="3">
         <v>4</v>
       </c>
@@ -5530,7 +5575,7 @@
       </c>
       <c r="L136" s="3"/>
     </row>
-    <row r="137" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:13" s="11" customFormat="1">
       <c r="B137" s="3">
         <v>5</v>
       </c>
@@ -5557,7 +5602,7 @@
       </c>
       <c r="L137" s="3"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:13">
       <c r="B138" s="3">
         <v>6</v>
       </c>
@@ -5586,7 +5631,7 @@
       <c r="K138" s="11"/>
       <c r="L138" s="3"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:13">
       <c r="B139" s="3">
         <v>7</v>
       </c>
@@ -5615,7 +5660,7 @@
       <c r="K139" s="11"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:13">
       <c r="B140" s="3">
         <v>8</v>
       </c>
@@ -5644,7 +5689,7 @@
       <c r="K140" s="11"/>
       <c r="L140" s="3"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:13">
       <c r="B141" s="3">
         <v>9</v>
       </c>
@@ -5673,7 +5718,7 @@
       <c r="K141" s="11"/>
       <c r="L141" s="3"/>
     </row>
-    <row r="142" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:13" s="11" customFormat="1">
       <c r="B142" s="3">
         <v>10</v>
       </c>
@@ -5703,7 +5748,7 @@
       </c>
       <c r="L142" s="3"/>
     </row>
-    <row r="143" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:13" s="11" customFormat="1">
       <c r="B143" s="3">
         <v>11</v>
       </c>
@@ -5733,7 +5778,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:13" s="11" customFormat="1">
       <c r="B144" s="3">
         <v>12</v>
       </c>
@@ -5760,7 +5805,7 @@
       </c>
       <c r="L144" s="3"/>
     </row>
-    <row r="145" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:13" s="42" customFormat="1">
       <c r="B145" s="3">
         <v>13</v>
       </c>
@@ -5787,7 +5832,7 @@
       </c>
       <c r="L145" s="3"/>
     </row>
-    <row r="146" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:13" s="42" customFormat="1">
       <c r="B146" s="3">
         <v>14</v>
       </c>
@@ -5811,7 +5856,7 @@
       </c>
       <c r="L146" s="3"/>
     </row>
-    <row r="147" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:13" s="42" customFormat="1">
       <c r="B147" s="3">
         <v>15</v>
       </c>
@@ -5835,7 +5880,7 @@
       </c>
       <c r="L147" s="3"/>
     </row>
-    <row r="148" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:13" s="42" customFormat="1">
       <c r="B148" s="3">
         <v>16</v>
       </c>
@@ -5862,7 +5907,7 @@
       </c>
       <c r="L148" s="3"/>
     </row>
-    <row r="149" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:13" s="42" customFormat="1">
       <c r="B149" s="3">
         <v>17</v>
       </c>
@@ -5886,7 +5931,7 @@
       </c>
       <c r="L149" s="3"/>
     </row>
-    <row r="150" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:13" s="42" customFormat="1">
       <c r="B150" s="3">
         <v>18</v>
       </c>
@@ -5910,7 +5955,7 @@
       </c>
       <c r="L150" s="3"/>
     </row>
-    <row r="151" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:13" ht="24">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -5951,7 +5996,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:13">
       <c r="A152" s="3" t="s">
         <v>146</v>
       </c>
@@ -5983,7 +6028,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:13">
       <c r="A153" s="3" t="s">
         <v>127</v>
       </c>
@@ -6013,7 +6058,7 @@
       </c>
       <c r="L153" s="3"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:13">
       <c r="B154" s="3">
         <v>3</v>
       </c>
@@ -6040,7 +6085,7 @@
       </c>
       <c r="L154" s="3"/>
     </row>
-    <row r="155" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:13" s="42" customFormat="1">
       <c r="B155" s="3">
         <v>4</v>
       </c>
@@ -6067,7 +6112,7 @@
       </c>
       <c r="L155" s="3"/>
     </row>
-    <row r="156" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:13" s="42" customFormat="1">
       <c r="B156" s="3">
         <v>5</v>
       </c>
@@ -6091,7 +6136,7 @@
       </c>
       <c r="L156" s="3"/>
     </row>
-    <row r="157" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:13" s="42" customFormat="1">
       <c r="B157" s="3">
         <v>6</v>
       </c>
@@ -6115,7 +6160,7 @@
       </c>
       <c r="L157" s="3"/>
     </row>
-    <row r="158" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:13" s="42" customFormat="1">
       <c r="B158" s="3">
         <v>7</v>
       </c>
@@ -6142,7 +6187,7 @@
       </c>
       <c r="L158" s="3"/>
     </row>
-    <row r="159" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:13" s="42" customFormat="1">
       <c r="B159" s="3">
         <v>8</v>
       </c>
@@ -6166,7 +6211,7 @@
       </c>
       <c r="L159" s="3"/>
     </row>
-    <row r="160" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:13" s="42" customFormat="1">
       <c r="B160" s="3">
         <v>9</v>
       </c>
@@ -6190,7 +6235,7 @@
       </c>
       <c r="L160" s="3"/>
     </row>
-    <row r="161" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:13" ht="24">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
@@ -6231,7 +6276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:13">
       <c r="A162" s="3" t="s">
         <v>147</v>
       </c>
@@ -6263,7 +6308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:13">
       <c r="A163" s="3" t="s">
         <v>128</v>
       </c>
@@ -6296,7 +6341,7 @@
       </c>
       <c r="L163" s="3"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:13">
       <c r="B164" s="3">
         <v>3</v>
       </c>
@@ -6323,7 +6368,7 @@
       </c>
       <c r="L164" s="3"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:13">
       <c r="B165" s="3">
         <v>4</v>
       </c>
@@ -6350,7 +6395,7 @@
       </c>
       <c r="L165" s="3"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:13">
       <c r="B166" s="3">
         <v>5</v>
       </c>
@@ -6377,7 +6422,7 @@
       </c>
       <c r="L166" s="3"/>
     </row>
-    <row r="167" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:13" s="23" customFormat="1">
       <c r="B167" s="3">
         <v>6</v>
       </c>
@@ -6404,7 +6449,7 @@
       </c>
       <c r="L167" s="3"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:13">
       <c r="B168" s="3">
         <v>7</v>
       </c>
@@ -6431,7 +6476,7 @@
       </c>
       <c r="L168" s="3"/>
     </row>
-    <row r="169" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:13" s="23" customFormat="1">
       <c r="B169" s="3">
         <v>8</v>
       </c>
@@ -6458,7 +6503,7 @@
       </c>
       <c r="L169" s="3"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:13">
       <c r="B170" s="3">
         <v>9</v>
       </c>
@@ -6485,7 +6530,7 @@
       </c>
       <c r="L170" s="3"/>
     </row>
-    <row r="171" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:13" s="47" customFormat="1">
       <c r="B171" s="3">
         <v>10</v>
       </c>
@@ -6512,7 +6557,7 @@
       </c>
       <c r="L171" s="3"/>
     </row>
-    <row r="172" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:13" s="47" customFormat="1">
       <c r="B172" s="3">
         <v>11</v>
       </c>
@@ -6539,7 +6584,7 @@
       </c>
       <c r="L172" s="3"/>
     </row>
-    <row r="173" spans="1:13" s="48" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:13" s="48" customFormat="1">
       <c r="B173" s="3">
         <v>12</v>
       </c>
@@ -6566,7 +6611,7 @@
       </c>
       <c r="L173" s="3"/>
     </row>
-    <row r="174" spans="1:13" s="47" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:13" s="47" customFormat="1">
       <c r="B174" s="3">
         <v>13</v>
       </c>
@@ -6593,7 +6638,7 @@
       </c>
       <c r="L174" s="3"/>
     </row>
-    <row r="175" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:13" s="42" customFormat="1">
       <c r="B175" s="3">
         <v>14</v>
       </c>
@@ -6620,7 +6665,7 @@
       </c>
       <c r="L175" s="3"/>
     </row>
-    <row r="176" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:13" s="42" customFormat="1">
       <c r="B176" s="3">
         <v>15</v>
       </c>
@@ -6644,7 +6689,7 @@
       </c>
       <c r="L176" s="3"/>
     </row>
-    <row r="177" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:13" s="42" customFormat="1">
       <c r="B177" s="3">
         <v>16</v>
       </c>
@@ -6668,7 +6713,7 @@
       </c>
       <c r="L177" s="3"/>
     </row>
-    <row r="178" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:13" s="42" customFormat="1">
       <c r="B178" s="3">
         <v>17</v>
       </c>
@@ -6695,7 +6740,7 @@
       </c>
       <c r="L178" s="3"/>
     </row>
-    <row r="179" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:13" s="42" customFormat="1">
       <c r="B179" s="3">
         <v>18</v>
       </c>
@@ -6719,7 +6764,7 @@
       </c>
       <c r="L179" s="3"/>
     </row>
-    <row r="180" spans="1:13" s="42" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:13" s="42" customFormat="1">
       <c r="B180" s="3">
         <v>19</v>
       </c>
@@ -6743,7 +6788,7 @@
       </c>
       <c r="L180" s="3"/>
     </row>
-    <row r="181" spans="1:13" ht="24" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:13" ht="24">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
@@ -6784,421 +6829,1028 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:13" s="50" customFormat="1">
       <c r="A182" s="3" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="B182" s="3">
         <v>1</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E182" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F182" s="41">
+        <v>294</v>
+      </c>
+      <c r="E182" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F182" s="50">
         <v>32</v>
       </c>
-      <c r="H182" s="41" t="s">
+      <c r="H182" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="I182" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="J182" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L182" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I182" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J182" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" s="50" customFormat="1">
       <c r="A183" s="3" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
       <c r="B183" s="3">
         <v>2</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E183" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F183" s="41">
-        <v>100</v>
-      </c>
-      <c r="H183" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="E183" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F183" s="50">
+        <v>255</v>
+      </c>
+      <c r="H183" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I183" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J183" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L183" s="3"/>
-    </row>
-    <row r="184" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I183" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J183" s="50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" s="50" customFormat="1">
       <c r="B184" s="3">
+        <v>4</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E184" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F184" s="50">
+        <v>255</v>
+      </c>
+      <c r="H184" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I184" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J184" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" s="50" customFormat="1">
+      <c r="B185" s="3">
         <v>3</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E184" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F184" s="41">
-        <v>20</v>
-      </c>
-      <c r="H184" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I184" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J184" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L184" s="3"/>
-    </row>
-    <row r="185" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="3">
+      <c r="C185" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F185" s="50">
         <v>4</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E185" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F185" s="41">
-        <v>100</v>
-      </c>
-      <c r="H185" s="41" t="s">
+      <c r="H185" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I185" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J185" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L185" s="3"/>
-    </row>
-    <row r="186" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I185" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J185" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" s="50" customFormat="1">
       <c r="B186" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E186" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F186" s="44">
-        <v>8</v>
-      </c>
-      <c r="H186" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="I186" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J186" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L186" s="3"/>
-    </row>
-    <row r="187" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="E186" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F186" s="50">
+        <v>255</v>
+      </c>
+      <c r="H186" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I186" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J186" s="50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" s="50" customFormat="1">
       <c r="B187" s="3">
         <v>5</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E187" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F187" s="41">
-        <v>1</v>
-      </c>
-      <c r="H187" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I187" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J187" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K187" s="41" t="s">
-        <v>134</v>
+        <v>232</v>
+      </c>
+      <c r="E187" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F187" s="50">
+        <v>32</v>
+      </c>
+      <c r="H187" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I187" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J187" s="50" t="s">
+        <v>87</v>
       </c>
       <c r="L187" s="3"/>
     </row>
-    <row r="188" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:13" s="50" customFormat="1">
       <c r="B188" s="3">
         <v>6</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>137</v>
+        <v>233</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E188" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F188" s="41">
-        <v>20</v>
-      </c>
-      <c r="H188" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I188" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J188" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="E188" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H188" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I188" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J188" s="50" t="s">
         <v>87</v>
       </c>
       <c r="L188" s="3"/>
     </row>
-    <row r="189" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:13" s="50" customFormat="1">
       <c r="B189" s="3">
         <v>7</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E189" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F189" s="41">
-        <v>100</v>
-      </c>
-      <c r="H189" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I189" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J189" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="E189" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H189" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I189" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J189" s="50" t="s">
         <v>87</v>
       </c>
       <c r="L189" s="3"/>
     </row>
-    <row r="190" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:13" s="50" customFormat="1">
       <c r="B190" s="3">
         <v>8</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>231</v>
+        <v>102</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E190" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F190" s="41">
+        <v>240</v>
+      </c>
+      <c r="E190" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F190" s="50">
         <v>32</v>
       </c>
-      <c r="H190" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I190" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J190" s="45" t="s">
+      <c r="H190" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I190" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J190" s="50" t="s">
         <v>87</v>
       </c>
       <c r="L190" s="3"/>
     </row>
-    <row r="191" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:13" s="50" customFormat="1">
       <c r="B191" s="3">
         <v>9</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E191" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="E191" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="H191" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I191" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J191" s="45" t="s">
+      <c r="H191" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I191" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J191" s="50" t="s">
         <v>87</v>
       </c>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:13" s="50" customFormat="1">
       <c r="B192" s="3">
         <v>10</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E192" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H192" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I192" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="J192" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L192" s="3"/>
+    </row>
+    <row r="193" spans="1:13" s="50" customFormat="1" ht="24">
+      <c r="A193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" s="50" customFormat="1">
+      <c r="A194" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B194" s="3">
+        <v>1</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E194" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F194" s="50">
+        <v>32</v>
+      </c>
+      <c r="H194" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="I194" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J194" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" s="50" customFormat="1">
+      <c r="A195" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B195" s="3">
+        <v>2</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E195" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F195" s="50">
+        <v>32</v>
+      </c>
+      <c r="H195" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I195" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J195" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L195" s="3"/>
+    </row>
+    <row r="196" spans="1:13" s="50" customFormat="1">
+      <c r="B196" s="3">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E196" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F196" s="50">
+        <v>32</v>
+      </c>
+      <c r="H196" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="I196" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J196" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L196" s="3"/>
+    </row>
+    <row r="197" spans="1:13" s="50" customFormat="1">
+      <c r="B197" s="3">
+        <v>4</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E197" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F197" s="50">
+        <v>32</v>
+      </c>
+      <c r="H197" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I197" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J197" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L197" s="3"/>
+    </row>
+    <row r="198" spans="1:13" s="50" customFormat="1">
+      <c r="B198" s="3">
+        <v>5</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E198" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H198" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I198" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J198" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L198" s="3"/>
+    </row>
+    <row r="199" spans="1:13" s="50" customFormat="1">
+      <c r="B199" s="3">
+        <v>6</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D199" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E192" s="41" t="s">
+      <c r="E199" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="H192" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I192" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J192" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L192" s="3"/>
-    </row>
-    <row r="193" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="3">
+      <c r="H199" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I199" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J199" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L199" s="3"/>
+    </row>
+    <row r="200" spans="1:13" s="50" customFormat="1">
+      <c r="B200" s="3">
+        <v>7</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E200" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F200" s="50">
+        <v>32</v>
+      </c>
+      <c r="H200" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I200" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J200" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L200" s="3"/>
+    </row>
+    <row r="201" spans="1:13" s="50" customFormat="1">
+      <c r="B201" s="3">
+        <v>8</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E201" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="H201" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I201" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J201" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L201" s="3"/>
+    </row>
+    <row r="202" spans="1:13" s="50" customFormat="1">
+      <c r="B202" s="3">
+        <v>9</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E202" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H202" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="I202" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J202" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L202" s="3"/>
+    </row>
+    <row r="203" spans="1:13" s="50" customFormat="1" ht="24">
+      <c r="A203" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="G203" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" s="41" customFormat="1">
+      <c r="A204" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E204" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F204" s="41">
+        <v>32</v>
+      </c>
+      <c r="H204" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I204" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J204" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" s="41" customFormat="1">
+      <c r="A205" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B205" s="3">
+        <v>2</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F205" s="41">
+        <v>100</v>
+      </c>
+      <c r="H205" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I205" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J205" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L205" s="3"/>
+    </row>
+    <row r="206" spans="1:13" s="41" customFormat="1">
+      <c r="B206" s="3">
+        <v>3</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E206" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F206" s="41">
+        <v>20</v>
+      </c>
+      <c r="H206" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I206" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J206" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L206" s="3"/>
+    </row>
+    <row r="207" spans="1:13" s="41" customFormat="1">
+      <c r="B207" s="3">
+        <v>4</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E207" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" s="41">
+        <v>100</v>
+      </c>
+      <c r="H207" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J207" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L207" s="3"/>
+    </row>
+    <row r="208" spans="1:13" s="44" customFormat="1">
+      <c r="B208" s="3">
+        <v>3</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E208" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F208" s="44">
+        <v>8</v>
+      </c>
+      <c r="H208" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I208" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J208" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L208" s="3"/>
+    </row>
+    <row r="209" spans="1:13" s="41" customFormat="1">
+      <c r="B209" s="3">
+        <v>5</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E209" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F209" s="41">
+        <v>1</v>
+      </c>
+      <c r="H209" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I209" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J209" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K209" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="L209" s="3"/>
+    </row>
+    <row r="210" spans="1:13" s="41" customFormat="1">
+      <c r="B210" s="3">
+        <v>6</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E210" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F210" s="41">
+        <v>20</v>
+      </c>
+      <c r="H210" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I210" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J210" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L210" s="3"/>
+    </row>
+    <row r="211" spans="1:13" s="41" customFormat="1">
+      <c r="B211" s="3">
+        <v>7</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E211" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F211" s="41">
+        <v>100</v>
+      </c>
+      <c r="H211" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I211" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J211" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L211" s="3"/>
+    </row>
+    <row r="212" spans="1:13" s="41" customFormat="1">
+      <c r="B212" s="3">
+        <v>8</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E212" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" s="41">
+        <v>32</v>
+      </c>
+      <c r="H212" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I212" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J212" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L212" s="3"/>
+    </row>
+    <row r="213" spans="1:13" s="41" customFormat="1">
+      <c r="B213" s="3">
+        <v>9</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E213" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H213" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I213" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J213" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L213" s="3"/>
+    </row>
+    <row r="214" spans="1:13" s="41" customFormat="1">
+      <c r="B214" s="3">
+        <v>10</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E214" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H214" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I214" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J214" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L214" s="3"/>
+    </row>
+    <row r="215" spans="1:13" s="41" customFormat="1">
+      <c r="B215" s="3">
+        <v>11</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D215" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E193" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F193" s="41">
+      <c r="E215" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215" s="41">
         <v>32</v>
       </c>
-      <c r="H193" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I193" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J193" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L193" s="3"/>
-    </row>
-    <row r="194" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="3">
+      <c r="H215" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I215" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J215" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L215" s="3"/>
+    </row>
+    <row r="216" spans="1:13" s="41" customFormat="1">
+      <c r="B216" s="3">
         <v>12</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C216" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D216" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E194" s="41" t="s">
+      <c r="E216" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="H194" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I194" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J194" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L194" s="3"/>
-    </row>
-    <row r="195" spans="1:13" s="41" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="3">
+      <c r="H216" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I216" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J216" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="1:13" s="41" customFormat="1">
+      <c r="B217" s="3">
         <v>13</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D217" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E195" s="41" t="s">
+      <c r="E217" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H195" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I195" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J195" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L195" s="3"/>
-    </row>
-    <row r="196" spans="1:13" s="41" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A196" s="1" t="s">
+      <c r="H217" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I217" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J217" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L217" s="3"/>
+    </row>
+    <row r="218" spans="1:13" s="41" customFormat="1" ht="24">
+      <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F218" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I196" s="1" t="s">
+      <c r="I218" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J196" s="1" t="s">
+      <c r="J218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K196" s="1" t="s">
+      <c r="K218" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="L218" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M196" s="1" t="s">
+      <c r="M218" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7210,13 +7862,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H60 H132:H150 H75:H89 H152:H160 H182:H195 H62:H73 H91:H100 H102:H130 H197:H1048576 H162:H180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H219:H1048576 H1:H60 H132:H150 H75:H89 H152:H160 H182:H192 H62:H73 H91:H100 H102:H130 H162:H180 H194:H202 H204:H217">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:J60 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J195 I91:J100 I197:J1048576 I162:J180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I219:J1048576 I1:J60 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J192 I91:J100 I162:J180 I194:J202 I204:J217">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E62:E73 E1:E60 E75:E89 E102:E130 E152:E160 E182:E195 E132:E150 E91:E100 E197:E1048576 E162:E180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E219:E1048576 E62:E73 E1:E60 E75:E89 E102:E130 E152:E160 E182:E192 E132:E150 E91:E100 E162:E180 E194:E202 E204:E217">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
   </dataValidations>

--- a/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
+++ b/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="661" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="修订记录" sheetId="17" r:id="rId1"/>
     <sheet name="系统管理" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="298">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,48 +1078,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T_SYS_GROUP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS13_用户组表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_NAME</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_TYPE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T_SYS_GROUP_USER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYS14_用户组和用户关系表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_USER_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>T_SYS_POST</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS13_岗位表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位ID</t>
+  </si>
+  <si>
+    <t>岗位名称</t>
+  </si>
+  <si>
+    <t>SYS14_岗位和用户关系表</t>
+  </si>
+  <si>
+    <t>POST_ID</t>
+  </si>
+  <si>
+    <t>POST_NAME</t>
+  </si>
+  <si>
+    <t>T_SYS_POST_USER</t>
+  </si>
+  <si>
+    <t>POST_USER_ID</t>
   </si>
 </sst>
 </file>
@@ -1743,10 +1728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:M217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="J182" sqref="J182:J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
@@ -6889,22 +6874,22 @@
     </row>
     <row r="184" spans="1:13" s="50" customFormat="1">
       <c r="B184" s="3">
+        <v>3</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E184" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F184" s="50">
         <v>4</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="E184" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F184" s="50">
-        <v>255</v>
-      </c>
       <c r="H184" s="50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I184" s="50" t="s">
         <v>88</v>
@@ -6915,22 +6900,22 @@
     </row>
     <row r="185" spans="1:13" s="50" customFormat="1">
       <c r="B185" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E185" s="50" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="F185" s="50">
-        <v>4</v>
+        <v>255</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I185" s="50" t="s">
         <v>88</v>
@@ -6941,19 +6926,19 @@
     </row>
     <row r="186" spans="1:13" s="50" customFormat="1">
       <c r="B186" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="E186" s="50" t="s">
         <v>21</v>
       </c>
       <c r="F186" s="50">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="H186" s="50" t="s">
         <v>86</v>
@@ -6964,22 +6949,20 @@
       <c r="J186" s="50" t="s">
         <v>87</v>
       </c>
+      <c r="L186" s="3"/>
     </row>
     <row r="187" spans="1:13" s="50" customFormat="1">
       <c r="B187" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E187" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F187" s="50">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="H187" s="50" t="s">
         <v>86</v>
@@ -6994,16 +6977,16 @@
     </row>
     <row r="188" spans="1:13" s="50" customFormat="1">
       <c r="B188" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E188" s="50" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H188" s="50" t="s">
         <v>86</v>
@@ -7018,16 +7001,19 @@
     </row>
     <row r="189" spans="1:13" s="50" customFormat="1">
       <c r="B189" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E189" s="50" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="F189" s="50">
+        <v>32</v>
       </c>
       <c r="H189" s="50" t="s">
         <v>86</v>
@@ -7042,19 +7028,16 @@
     </row>
     <row r="190" spans="1:13" s="50" customFormat="1">
       <c r="B190" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E190" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F190" s="50">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="H190" s="50" t="s">
         <v>86</v>
@@ -7069,16 +7052,16 @@
     </row>
     <row r="191" spans="1:13" s="50" customFormat="1">
       <c r="B191" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E191" s="50" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H191" s="50" t="s">
         <v>86</v>
@@ -7091,83 +7074,91 @@
       </c>
       <c r="L191" s="3"/>
     </row>
-    <row r="192" spans="1:13" s="50" customFormat="1">
-      <c r="B192" s="3">
-        <v>10</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E192" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H192" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="I192" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="J192" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="L192" s="3"/>
-    </row>
-    <row r="193" spans="1:13" s="50" customFormat="1" ht="24">
-      <c r="A193" s="1" t="s">
+    <row r="192" spans="1:13" s="50" customFormat="1" ht="24">
+      <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F192" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="I192" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J193" s="1" t="s">
+      <c r="J192" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K193" s="1" t="s">
+      <c r="K192" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="L192" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M193" s="1" t="s">
+      <c r="M192" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" s="50" customFormat="1">
+      <c r="A193" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B193" s="3">
+        <v>1</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E193" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F193" s="50">
+        <v>32</v>
+      </c>
+      <c r="H193" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="I193" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="J193" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:13" s="50" customFormat="1">
       <c r="A194" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B194" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>61</v>
+        <v>291</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E194" s="50" t="s">
         <v>21</v>
@@ -7176,7 +7167,7 @@
         <v>32</v>
       </c>
       <c r="H194" s="50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I194" s="50" t="s">
         <v>87</v>
@@ -7184,22 +7175,17 @@
       <c r="J194" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L194" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="L194" s="3"/>
     </row>
     <row r="195" spans="1:13" s="50" customFormat="1">
-      <c r="A195" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="B195" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>294</v>
+        <v>68</v>
       </c>
       <c r="E195" s="50" t="s">
         <v>21</v>
@@ -7220,13 +7206,13 @@
     </row>
     <row r="196" spans="1:13" s="50" customFormat="1">
       <c r="B196" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="E196" s="50" t="s">
         <v>21</v>
@@ -7235,7 +7221,7 @@
         <v>32</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I196" s="50" t="s">
         <v>87</v>
@@ -7247,19 +7233,16 @@
     </row>
     <row r="197" spans="1:13" s="50" customFormat="1">
       <c r="B197" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E197" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F197" s="50">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="H197" s="50" t="s">
         <v>86</v>
@@ -7274,16 +7257,16 @@
     </row>
     <row r="198" spans="1:13" s="50" customFormat="1">
       <c r="B198" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H198" s="50" t="s">
         <v>86</v>
@@ -7298,16 +7281,19 @@
     </row>
     <row r="199" spans="1:13" s="50" customFormat="1">
       <c r="B199" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E199" s="50" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="F199" s="50">
+        <v>32</v>
       </c>
       <c r="H199" s="50" t="s">
         <v>86</v>
@@ -7322,19 +7308,16 @@
     </row>
     <row r="200" spans="1:13" s="50" customFormat="1">
       <c r="B200" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="F200" s="50">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="H200" s="50" t="s">
         <v>86</v>
@@ -7349,16 +7332,16 @@
     </row>
     <row r="201" spans="1:13" s="50" customFormat="1">
       <c r="B201" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H201" s="50" t="s">
         <v>86</v>
@@ -7371,124 +7354,127 @@
       </c>
       <c r="L201" s="3"/>
     </row>
-    <row r="202" spans="1:13" s="50" customFormat="1">
-      <c r="B202" s="3">
-        <v>9</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E202" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="H202" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="I202" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="J202" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="L202" s="3"/>
-    </row>
-    <row r="203" spans="1:13" s="50" customFormat="1" ht="24">
-      <c r="A203" s="1" t="s">
+    <row r="202" spans="1:13" s="50" customFormat="1" ht="24">
+      <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="I202" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J203" s="1" t="s">
+      <c r="J202" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K203" s="1" t="s">
+      <c r="K202" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="L202" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M203" s="1" t="s">
+      <c r="M202" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" s="41" customFormat="1">
+      <c r="A203" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B203" s="3">
+        <v>1</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E203" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F203" s="41">
+        <v>32</v>
+      </c>
+      <c r="H203" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="I203" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J203" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="204" spans="1:13" s="41" customFormat="1">
       <c r="A204" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B204" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E204" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F204" s="41">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H204" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I204" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="J204" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L204" s="3" t="s">
-        <v>131</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I204" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J204" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L204" s="3"/>
     </row>
     <row r="205" spans="1:13" s="41" customFormat="1">
-      <c r="A205" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="B205" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="E205" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F205" s="41">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H205" s="41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I205" s="45" t="s">
         <v>87</v>
@@ -7500,49 +7486,49 @@
     </row>
     <row r="206" spans="1:13" s="41" customFormat="1">
       <c r="B206" s="3">
+        <v>4</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E206" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F206" s="41">
+        <v>100</v>
+      </c>
+      <c r="H206" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I206" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J206" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L206" s="3"/>
+    </row>
+    <row r="207" spans="1:13" s="44" customFormat="1">
+      <c r="B207" s="3">
         <v>3</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E206" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F206" s="41">
-        <v>20</v>
-      </c>
-      <c r="H206" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I206" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J206" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L206" s="3"/>
-    </row>
-    <row r="207" spans="1:13" s="41" customFormat="1">
-      <c r="B207" s="3">
-        <v>4</v>
-      </c>
       <c r="C207" s="3" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E207" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="41">
-        <v>100</v>
-      </c>
-      <c r="H207" s="41" t="s">
-        <v>85</v>
+        <v>243</v>
+      </c>
+      <c r="E207" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F207" s="44">
+        <v>8</v>
+      </c>
+      <c r="H207" s="44" t="s">
+        <v>86</v>
       </c>
       <c r="I207" s="45" t="s">
         <v>87</v>
@@ -7552,23 +7538,23 @@
       </c>
       <c r="L207" s="3"/>
     </row>
-    <row r="208" spans="1:13" s="44" customFormat="1">
+    <row r="208" spans="1:13" s="41" customFormat="1">
       <c r="B208" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E208" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F208" s="44">
-        <v>8</v>
-      </c>
-      <c r="H208" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E208" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F208" s="41">
+        <v>1</v>
+      </c>
+      <c r="H208" s="41" t="s">
         <v>86</v>
       </c>
       <c r="I208" s="45" t="s">
@@ -7576,24 +7562,27 @@
       </c>
       <c r="J208" s="45" t="s">
         <v>87</v>
+      </c>
+      <c r="K208" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="L208" s="3"/>
     </row>
     <row r="209" spans="1:13" s="41" customFormat="1">
       <c r="B209" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E209" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F209" s="41">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H209" s="41" t="s">
         <v>86</v>
@@ -7603,27 +7592,24 @@
       </c>
       <c r="J209" s="45" t="s">
         <v>87</v>
-      </c>
-      <c r="K209" s="41" t="s">
-        <v>134</v>
       </c>
       <c r="L209" s="3"/>
     </row>
     <row r="210" spans="1:13" s="41" customFormat="1">
       <c r="B210" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E210" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F210" s="41">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H210" s="41" t="s">
         <v>86</v>
@@ -7638,19 +7624,19 @@
     </row>
     <row r="211" spans="1:13" s="41" customFormat="1">
       <c r="B211" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="E211" s="41" t="s">
         <v>21</v>
       </c>
       <c r="F211" s="41">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H211" s="41" t="s">
         <v>86</v>
@@ -7665,19 +7651,16 @@
     </row>
     <row r="212" spans="1:13" s="41" customFormat="1">
       <c r="B212" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E212" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F212" s="41">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="H212" s="41" t="s">
         <v>86</v>
@@ -7692,16 +7675,16 @@
     </row>
     <row r="213" spans="1:13" s="41" customFormat="1">
       <c r="B213" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E213" s="41" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H213" s="41" t="s">
         <v>86</v>
@@ -7716,16 +7699,19 @@
     </row>
     <row r="214" spans="1:13" s="41" customFormat="1">
       <c r="B214" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E214" s="41" t="s">
-        <v>79</v>
+        <v>21</v>
+      </c>
+      <c r="F214" s="41">
+        <v>32</v>
       </c>
       <c r="H214" s="41" t="s">
         <v>86</v>
@@ -7740,19 +7726,16 @@
     </row>
     <row r="215" spans="1:13" s="41" customFormat="1">
       <c r="B215" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E215" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F215" s="41">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="H215" s="41" t="s">
         <v>86</v>
@@ -7767,90 +7750,66 @@
     </row>
     <row r="216" spans="1:13" s="41" customFormat="1">
       <c r="B216" s="3">
+        <v>13</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E216" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H216" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I216" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J216" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="1:13" s="41" customFormat="1" ht="24">
+      <c r="A217" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E216" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="H216" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I216" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J216" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L216" s="3"/>
-    </row>
-    <row r="217" spans="1:13" s="41" customFormat="1">
-      <c r="B217" s="3">
-        <v>13</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E217" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H217" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I217" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J217" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L217" s="3"/>
-    </row>
-    <row r="218" spans="1:13" s="41" customFormat="1" ht="24">
-      <c r="A218" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H218" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="I217" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J217" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="K217" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="L217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M218" s="1" t="s">
+      <c r="M217" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7862,13 +7821,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H219:H1048576 H1:H60 H132:H150 H75:H89 H152:H160 H182:H192 H62:H73 H91:H100 H102:H130 H162:H180 H194:H202 H204:H217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H218:H1048576 H193:H201 H203:H216 H162:H180 H102:H130 H91:H100 H62:H73 H182:H191 H152:H160 H75:H89 H132:H150 H1:H60">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I219:J1048576 I1:J60 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J192 I91:J100 I162:J180 I194:J202 I204:J217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I218:J1048576 I193:J201 I203:J216 I162:J180 I91:J100 I182:J191 I152:J160 I132:J150 I102:J130 I75:J89 I62:J73 I1:J60">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E219:E1048576 E62:E73 E1:E60 E75:E89 E102:E130 E152:E160 E182:E192 E132:E150 E91:E100 E162:E180 E194:E202 E204:E217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E218:E1048576 E193:E201 E203:E216 E162:E180 E91:E100 E132:E150 E182:E191 E152:E160 E102:E130 E75:E89 E1:E60 E62:E73">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
   </dataValidations>

--- a/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
+++ b/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="334">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1105,6 +1105,135 @@
   </si>
   <si>
     <t>POST_USER_ID</t>
+  </si>
+  <si>
+    <t>JOB_ID</t>
+  </si>
+  <si>
+    <t>JOB_NAME</t>
+  </si>
+  <si>
+    <t>JOB_GROUP</t>
+  </si>
+  <si>
+    <t>INVOKE_TARGET</t>
+  </si>
+  <si>
+    <t>CRON_EXPRESSION</t>
+  </si>
+  <si>
+    <t>CONCURRENT</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>任务ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务组名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用目标字符串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cron执行表达式</t>
+  </si>
+  <si>
+    <t>计划执行错误策略</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否并发执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MISFIRE_POLICY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>misfirePolicy</t>
+  </si>
+  <si>
+    <t>1是 0否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否正常状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SYS_JOB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS15_定时任务表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesOrNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SYS_JOB_LOG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS16_定时任务执行日志表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JOB_LOG_ID</t>
+  </si>
+  <si>
+    <t>JOB_MESSAGE</t>
+  </si>
+  <si>
+    <t>EXCEPTION_INFO</t>
+  </si>
+  <si>
+    <t>日志ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志信息</t>
+  </si>
+  <si>
+    <t>是否正常执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常信息</t>
+  </si>
+  <si>
+    <t>大文本</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOP_TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-默认 1立即执行 2执行一次 3放弃执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,7 +1343,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1286,6 +1415,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1728,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M217"/>
+  <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="J182" sqref="J182:J183"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
@@ -1745,7 +1895,7 @@
     <col min="7" max="7" width="3.25" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="36.375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="45.625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="16.375" style="2"/>
@@ -1820,7 +1970,7 @@
       <c r="J2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="58" t="s">
         <v>226</v>
       </c>
     </row>
@@ -1852,7 +2002,7 @@
       <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2">
@@ -1879,7 +2029,7 @@
       <c r="J4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="51"/>
+      <c r="M4" s="58"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="2">
@@ -1906,7 +2056,7 @@
       <c r="J5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="51"/>
+      <c r="M5" s="58"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2">
@@ -1933,7 +2083,7 @@
       <c r="J6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="51"/>
+      <c r="M6" s="58"/>
     </row>
     <row r="7" spans="1:13" s="42" customFormat="1">
       <c r="B7" s="42">
@@ -2154,7 +2304,7 @@
       <c r="J14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="58" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2186,7 +2336,7 @@
       <c r="J15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="51"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="42">
@@ -2213,7 +2363,7 @@
       <c r="J16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="51"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="1:13">
       <c r="B17" s="42">
@@ -2240,7 +2390,7 @@
       <c r="J17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="51"/>
+      <c r="M17" s="58"/>
     </row>
     <row r="18" spans="1:13" s="42" customFormat="1">
       <c r="B18" s="42">
@@ -2461,7 +2611,7 @@
       <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="51" t="s">
+      <c r="M25" s="58" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2494,7 +2644,7 @@
         <v>88</v>
       </c>
       <c r="L26" s="40"/>
-      <c r="M26" s="51"/>
+      <c r="M26" s="58"/>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="3">
@@ -2522,7 +2672,7 @@
         <v>87</v>
       </c>
       <c r="L27" s="40"/>
-      <c r="M27" s="51"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" spans="1:13">
       <c r="B28" s="3">
@@ -2549,7 +2699,7 @@
       <c r="J28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="51"/>
+      <c r="M28" s="58"/>
     </row>
     <row r="29" spans="1:13" s="7" customFormat="1">
       <c r="B29" s="3">
@@ -2576,7 +2726,7 @@
       <c r="J29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="51"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="3">
@@ -2603,7 +2753,7 @@
       <c r="J30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="51"/>
+      <c r="M30" s="58"/>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="3">
@@ -2630,7 +2780,7 @@
       <c r="J31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="51"/>
+      <c r="M31" s="58"/>
     </row>
     <row r="32" spans="1:13" s="28" customFormat="1">
       <c r="B32" s="3">
@@ -7395,421 +7545,1296 @@
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:13" s="41" customFormat="1">
+    <row r="203" spans="1:13">
       <c r="A203" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1</v>
+      </c>
+      <c r="C203" s="51" t="s">
+        <v>305</v>
+      </c>
+      <c r="D203" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="E203" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F203" s="2">
+        <v>32</v>
+      </c>
+      <c r="H203" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="I203" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J203" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
+      <c r="A204" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" s="2">
+        <v>2</v>
+      </c>
+      <c r="C204" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D204" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E204" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F204" s="2">
+        <v>64</v>
+      </c>
+      <c r="H204" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I204" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J204" s="51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
+      <c r="B205" s="2">
+        <v>3</v>
+      </c>
+      <c r="C205" s="51" t="s">
+        <v>307</v>
+      </c>
+      <c r="D205" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="E205" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F205" s="2">
+        <v>64</v>
+      </c>
+      <c r="H205" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I205" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J205" s="51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
+      <c r="B206" s="51">
+        <v>4</v>
+      </c>
+      <c r="C206" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="D206" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="E206" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F206" s="2">
+        <v>500</v>
+      </c>
+      <c r="H206" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I206" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J206" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
+      <c r="B207" s="51">
+        <v>5</v>
+      </c>
+      <c r="C207" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="D207" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="E207" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F207" s="51">
+        <v>255</v>
+      </c>
+      <c r="H207" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I207" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J207" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
+      <c r="B208" s="51">
+        <v>6</v>
+      </c>
+      <c r="C208" s="51" t="s">
+        <v>310</v>
+      </c>
+      <c r="D208" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="E208" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F208" s="51">
+        <v>20</v>
+      </c>
+      <c r="H208" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I208" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J208" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="K208" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="L208" s="57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
+      <c r="B209" s="51">
+        <v>7</v>
+      </c>
+      <c r="C209" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="D209" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="E209" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F209" s="2">
+        <v>1</v>
+      </c>
+      <c r="H209" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="I209" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J209" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="K209" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="L209" s="51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
+      <c r="B210" s="51">
+        <v>8</v>
+      </c>
+      <c r="C210" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="D210" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="E210" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F210" s="2">
+        <v>1</v>
+      </c>
+      <c r="H210" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="I210" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J210" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="K210" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="L210" s="51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
+      <c r="B211" s="51">
+        <v>9</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E211" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F211" s="51">
+        <v>500</v>
+      </c>
+      <c r="H211" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I211" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J211" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
+      <c r="B212" s="51">
+        <v>10</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D212" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="E212" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F212" s="51">
+        <v>32</v>
+      </c>
+      <c r="G212" s="51"/>
+      <c r="H212" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I212" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J212" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" s="51" customFormat="1">
+      <c r="B213" s="51">
+        <v>11</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E213" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="H213" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I213" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J213" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="L213" s="3"/>
+    </row>
+    <row r="214" spans="1:13">
+      <c r="B214" s="51">
+        <v>12</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D214" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="E214" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F214" s="51"/>
+      <c r="G214" s="51"/>
+      <c r="H214" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I214" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J214" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13">
+      <c r="B215" s="51">
+        <v>13</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D215" s="51" t="s">
+        <v>271</v>
+      </c>
+      <c r="E215" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F215" s="51">
+        <v>32</v>
+      </c>
+      <c r="G215" s="51"/>
+      <c r="H215" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I215" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J215" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" s="51" customFormat="1">
+      <c r="B216" s="51">
+        <v>14</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E216" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="H216" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I216" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J216" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="1:13">
+      <c r="B217" s="2">
+        <v>15</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D217" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="E217" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F217" s="51"/>
+      <c r="G217" s="51"/>
+      <c r="H217" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I217" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="J217" s="51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" s="54" customFormat="1" ht="24">
+      <c r="A218" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" s="54" customFormat="1">
+      <c r="A219" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B219" s="54">
+        <v>1</v>
+      </c>
+      <c r="C219" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="D219" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E219" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F219" s="54">
+        <v>32</v>
+      </c>
+      <c r="H219" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="I219" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J219" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" s="54" customFormat="1">
+      <c r="A220" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B220" s="54">
+        <v>2</v>
+      </c>
+      <c r="C220" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D220" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E220" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F220" s="54">
+        <v>64</v>
+      </c>
+      <c r="H220" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I220" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="J220" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" s="54" customFormat="1">
+      <c r="B221" s="54">
+        <v>3</v>
+      </c>
+      <c r="C221" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D221" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E221" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F221" s="54">
+        <v>64</v>
+      </c>
+      <c r="H221" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I221" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="J221" s="54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" s="54" customFormat="1">
+      <c r="B222" s="54">
+        <v>4</v>
+      </c>
+      <c r="C222" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="D222" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="E222" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F222" s="54">
+        <v>500</v>
+      </c>
+      <c r="H222" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="I222" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="J222" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" s="54" customFormat="1">
+      <c r="B223" s="54">
+        <v>5</v>
+      </c>
+      <c r="C223" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="D223" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="E223" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F223" s="54">
+        <v>500</v>
+      </c>
+      <c r="H223" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I223" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J223" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" s="54" customFormat="1">
+      <c r="B224" s="54">
+        <v>6</v>
+      </c>
+      <c r="C224" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="D224" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="E224" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F224" s="54">
+        <v>20</v>
+      </c>
+      <c r="H224" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I224" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="J224" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="K224" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="L224" s="54" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" s="54" customFormat="1">
+      <c r="B225" s="54">
+        <v>7</v>
+      </c>
+      <c r="C225" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="D225" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="E225" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="H225" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I225" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="J225" s="57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" s="55" customFormat="1">
+      <c r="B226" s="55">
+        <v>12</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D226" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="E226" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H226" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I226" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="J226" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" s="55" customFormat="1">
+      <c r="B227" s="55">
+        <v>12</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D227" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="E227" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H227" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="I227" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="J227" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" s="54" customFormat="1">
+      <c r="B228" s="54">
+        <v>10</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D228" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="E228" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F228" s="54">
+        <v>32</v>
+      </c>
+      <c r="H228" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I228" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J228" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" s="54" customFormat="1">
+      <c r="B229" s="54">
+        <v>11</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E229" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="H229" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I229" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J229" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="1:13" s="54" customFormat="1">
+      <c r="B230" s="54">
+        <v>12</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D230" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="E230" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H230" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I230" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J230" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" s="54" customFormat="1">
+      <c r="B231" s="54">
+        <v>13</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D231" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="E231" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231" s="54">
+        <v>32</v>
+      </c>
+      <c r="H231" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I231" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J231" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" s="54" customFormat="1">
+      <c r="B232" s="54">
+        <v>14</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E232" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="H232" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I232" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J232" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="1:13" s="54" customFormat="1">
+      <c r="B233" s="54">
+        <v>15</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D233" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E233" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H233" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="I233" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="J233" s="54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" s="51" customFormat="1" ht="24">
+      <c r="A234" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" s="41" customFormat="1">
+      <c r="A235" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B235" s="3">
         <v>1</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C235" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D235" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E203" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F203" s="41">
+      <c r="E235" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F235" s="41">
         <v>32</v>
       </c>
-      <c r="H203" s="41" t="s">
+      <c r="H235" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I203" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="J203" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L203" s="3" t="s">
+      <c r="I235" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J235" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L235" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="41" customFormat="1">
-      <c r="A204" s="3" t="s">
+    <row r="236" spans="1:13" s="41" customFormat="1">
+      <c r="A236" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B236" s="3">
         <v>2</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C236" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D236" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E204" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F204" s="41">
+      <c r="E236" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F236" s="41">
         <v>100</v>
       </c>
-      <c r="H204" s="41" t="s">
+      <c r="H236" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I204" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J204" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L204" s="3"/>
-    </row>
-    <row r="205" spans="1:13" s="41" customFormat="1">
-      <c r="B205" s="3">
+      <c r="I236" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J236" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L236" s="3"/>
+    </row>
+    <row r="237" spans="1:13" s="41" customFormat="1">
+      <c r="B237" s="3">
         <v>3</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C237" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D237" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E205" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F205" s="41">
+      <c r="E237" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F237" s="41">
         <v>20</v>
       </c>
-      <c r="H205" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I205" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J205" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L205" s="3"/>
-    </row>
-    <row r="206" spans="1:13" s="41" customFormat="1">
-      <c r="B206" s="3">
+      <c r="H237" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I237" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J237" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L237" s="3"/>
+    </row>
+    <row r="238" spans="1:13" s="41" customFormat="1">
+      <c r="B238" s="3">
         <v>4</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C238" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D238" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E206" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F206" s="41">
+      <c r="E238" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F238" s="41">
         <v>100</v>
       </c>
-      <c r="H206" s="41" t="s">
+      <c r="H238" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I206" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J206" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L206" s="3"/>
-    </row>
-    <row r="207" spans="1:13" s="44" customFormat="1">
-      <c r="B207" s="3">
+      <c r="I238" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J238" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L238" s="3"/>
+    </row>
+    <row r="239" spans="1:13" s="44" customFormat="1">
+      <c r="B239" s="3">
         <v>3</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C239" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D239" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E207" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F207" s="44">
+      <c r="E239" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F239" s="44">
         <v>8</v>
       </c>
-      <c r="H207" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="I207" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J207" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L207" s="3"/>
-    </row>
-    <row r="208" spans="1:13" s="41" customFormat="1">
-      <c r="B208" s="3">
+      <c r="H239" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I239" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J239" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L239" s="3"/>
+    </row>
+    <row r="240" spans="1:13" s="41" customFormat="1">
+      <c r="B240" s="3">
         <v>5</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C240" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D240" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E208" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F208" s="41">
+      <c r="E240" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F240" s="41">
         <v>1</v>
       </c>
-      <c r="H208" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I208" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J208" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K208" s="41" t="s">
+      <c r="H240" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I240" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J240" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K240" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L208" s="3"/>
-    </row>
-    <row r="209" spans="1:13" s="41" customFormat="1">
-      <c r="B209" s="3">
+      <c r="L240" s="3"/>
+    </row>
+    <row r="241" spans="1:13" s="41" customFormat="1">
+      <c r="B241" s="3">
         <v>6</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C241" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D241" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E209" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F209" s="41">
+      <c r="E241" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F241" s="41">
         <v>20</v>
       </c>
-      <c r="H209" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I209" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J209" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L209" s="3"/>
-    </row>
-    <row r="210" spans="1:13" s="41" customFormat="1">
-      <c r="B210" s="3">
+      <c r="H241" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I241" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J241" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L241" s="3"/>
+    </row>
+    <row r="242" spans="1:13" s="41" customFormat="1">
+      <c r="B242" s="3">
         <v>7</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C242" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D242" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E210" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F210" s="41">
+      <c r="E242" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F242" s="41">
         <v>100</v>
       </c>
-      <c r="H210" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I210" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J210" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L210" s="3"/>
-    </row>
-    <row r="211" spans="1:13" s="41" customFormat="1">
-      <c r="B211" s="3">
+      <c r="H242" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I242" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J242" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L242" s="3"/>
+    </row>
+    <row r="243" spans="1:13" s="41" customFormat="1">
+      <c r="B243" s="3">
         <v>8</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C243" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D243" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E211" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F211" s="41">
+      <c r="E243" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F243" s="41">
         <v>32</v>
       </c>
-      <c r="H211" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I211" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J211" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L211" s="3"/>
-    </row>
-    <row r="212" spans="1:13" s="41" customFormat="1">
-      <c r="B212" s="3">
+      <c r="H243" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I243" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J243" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L243" s="3"/>
+    </row>
+    <row r="244" spans="1:13" s="41" customFormat="1">
+      <c r="B244" s="3">
         <v>9</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C244" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D244" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E212" s="41" t="s">
+      <c r="E244" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="H212" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I212" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J212" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L212" s="3"/>
-    </row>
-    <row r="213" spans="1:13" s="41" customFormat="1">
-      <c r="B213" s="3">
+      <c r="H244" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I244" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J244" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L244" s="3"/>
+    </row>
+    <row r="245" spans="1:13" s="41" customFormat="1">
+      <c r="B245" s="3">
         <v>10</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C245" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D245" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E213" s="41" t="s">
+      <c r="E245" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H213" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I213" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J213" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L213" s="3"/>
-    </row>
-    <row r="214" spans="1:13" s="41" customFormat="1">
-      <c r="B214" s="3">
+      <c r="H245" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I245" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J245" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L245" s="3"/>
+    </row>
+    <row r="246" spans="1:13" s="41" customFormat="1">
+      <c r="B246" s="3">
         <v>11</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C246" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D246" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E214" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F214" s="41">
+      <c r="E246" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246" s="41">
         <v>32</v>
       </c>
-      <c r="H214" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I214" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J214" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L214" s="3"/>
-    </row>
-    <row r="215" spans="1:13" s="41" customFormat="1">
-      <c r="B215" s="3">
+      <c r="H246" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I246" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J246" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L246" s="3"/>
+    </row>
+    <row r="247" spans="1:13" s="41" customFormat="1">
+      <c r="B247" s="3">
         <v>12</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C247" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D247" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E215" s="41" t="s">
+      <c r="E247" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="H215" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I215" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J215" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L215" s="3"/>
-    </row>
-    <row r="216" spans="1:13" s="41" customFormat="1">
-      <c r="B216" s="3">
+      <c r="H247" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I247" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J247" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L247" s="3"/>
+    </row>
+    <row r="248" spans="1:13" s="41" customFormat="1">
+      <c r="B248" s="3">
         <v>13</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D248" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E216" s="41" t="s">
+      <c r="E248" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H216" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I216" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J216" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L216" s="3"/>
-    </row>
-    <row r="217" spans="1:13" s="41" customFormat="1" ht="24">
-      <c r="A217" s="1" t="s">
+      <c r="H248" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I248" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J248" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="1:13" s="41" customFormat="1" ht="24">
+      <c r="A249" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F249" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G249" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H249" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="I249" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J249" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K217" s="1" t="s">
+      <c r="K249" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="L249" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M217" s="1" t="s">
+      <c r="M249" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -7821,13 +8846,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H218:H1048576 H193:H201 H203:H216 H162:H180 H102:H130 H91:H100 H62:H73 H182:H191 H152:H160 H75:H89 H132:H150 H1:H60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H235:H248 H250:H1048576 H1:H60 H219:H233 H132:H150 H75:H89 H152:H160 H182:H191 H62:H73 H91:H100 H102:H130 H162:H180 H193:H201 H203:H217">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I218:J1048576 I193:J201 I203:J216 I162:J180 I91:J100 I182:J191 I152:J160 I132:J150 I102:J130 I75:J89 I62:J73 I1:J60">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I235:J248 I250:J1048576 I1:J60 I203:J217 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J191 I91:J100 I162:J180 I193:J201 I219:J233">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E218:E1048576 E193:E201 E203:E216 E162:E180 E91:E100 E132:E150 E182:E191 E152:E160 E102:E130 E75:E89 E1:E60 E62:E73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E235:E248 E250:E1048576 E62:E73 E203:E217 E1:E60 E75:E89 E102:E130 E152:E160 E182:E191 E132:E150 E91:E100 E162:E180 E193:E201 E219:E233">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
   </dataValidations>

--- a/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
+++ b/zjmzxfzhl/db/数据库设计【SYS_系统管理】.xlsx
@@ -1343,7 +1343,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1415,6 +1415,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1880,9 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
   <cols>
@@ -1970,7 +1977,7 @@
       <c r="J2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="61" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2002,7 +2009,7 @@
       <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="58"/>
+      <c r="M3" s="61"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2">
@@ -2029,7 +2036,7 @@
       <c r="J4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="58"/>
+      <c r="M4" s="61"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="2">
@@ -2056,7 +2063,7 @@
       <c r="J5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="58"/>
+      <c r="M5" s="61"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2">
@@ -2083,7 +2090,7 @@
       <c r="J6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="58"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:13" s="42" customFormat="1">
       <c r="B7" s="42">
@@ -2304,7 +2311,7 @@
       <c r="J14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="61" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2336,7 +2343,7 @@
       <c r="J15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="58"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="42">
@@ -2363,7 +2370,7 @@
       <c r="J16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="58"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:13">
       <c r="B17" s="42">
@@ -2390,7 +2397,7 @@
       <c r="J17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="58"/>
+      <c r="M17" s="61"/>
     </row>
     <row r="18" spans="1:13" s="42" customFormat="1">
       <c r="B18" s="42">
@@ -2611,7 +2618,7 @@
       <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="58" t="s">
+      <c r="M25" s="61" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2644,7 +2651,7 @@
         <v>88</v>
       </c>
       <c r="L26" s="40"/>
-      <c r="M26" s="58"/>
+      <c r="M26" s="61"/>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="3">
@@ -2672,7 +2679,7 @@
         <v>87</v>
       </c>
       <c r="L27" s="40"/>
-      <c r="M27" s="58"/>
+      <c r="M27" s="61"/>
     </row>
     <row r="28" spans="1:13">
       <c r="B28" s="3">
@@ -2699,7 +2706,7 @@
       <c r="J28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="58"/>
+      <c r="M28" s="61"/>
     </row>
     <row r="29" spans="1:13" s="7" customFormat="1">
       <c r="B29" s="3">
@@ -2726,7 +2733,7 @@
       <c r="J29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="58"/>
+      <c r="M29" s="61"/>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="3">
@@ -2753,7 +2760,7 @@
       <c r="J30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="58"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="3">
@@ -2780,7 +2787,7 @@
       <c r="J31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="58"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="1:13" s="28" customFormat="1">
       <c r="B32" s="3">
@@ -5226,7 +5233,7 @@
       </c>
       <c r="L119" s="3"/>
     </row>
-    <row r="120" spans="1:12" s="39" customFormat="1" ht="24">
+    <row r="120" spans="1:12" s="39" customFormat="1">
       <c r="B120" s="3">
         <v>8</v>
       </c>
@@ -6462,8 +6469,8 @@
       <c r="F163" s="2">
         <v>2</v>
       </c>
-      <c r="H163" s="48" t="s">
-        <v>86</v>
+      <c r="H163" s="59" t="s">
+        <v>85</v>
       </c>
       <c r="I163" s="45" t="s">
         <v>88</v>
@@ -6492,8 +6499,8 @@
       <c r="F164" s="2">
         <v>100</v>
       </c>
-      <c r="H164" s="48" t="s">
-        <v>86</v>
+      <c r="H164" s="59" t="s">
+        <v>85</v>
       </c>
       <c r="I164" s="45" t="s">
         <v>88</v>
@@ -6675,11 +6682,8 @@
       <c r="D171" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E171" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F171" s="47">
-        <v>2048</v>
+      <c r="E171" s="58" t="s">
+        <v>328</v>
       </c>
       <c r="H171" s="48" t="s">
         <v>86</v>
@@ -6729,11 +6733,8 @@
       <c r="D173" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E173" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="F173" s="48">
-        <v>1024</v>
+      <c r="E173" s="58" t="s">
+        <v>328</v>
       </c>
       <c r="H173" s="48" t="s">
         <v>86</v>
@@ -8797,7 +8798,7 @@
       </c>
       <c r="L248" s="3"/>
     </row>
-    <row r="249" spans="1:13" s="41" customFormat="1" ht="24">
+    <row r="249" spans="1:13" s="60" customFormat="1" ht="24">
       <c r="A249" s="1" t="s">
         <v>0</v>
       </c>
@@ -8846,13 +8847,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H235:H248 H250:H1048576 H1:H60 H219:H233 H132:H150 H75:H89 H152:H160 H182:H191 H62:H73 H91:H100 H102:H130 H162:H180 H193:H201 H203:H217">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H193:H201 H203:H217 H1:H60 H219:H233 H132:H150 H75:H89 H152:H160 H182:H191 H62:H73 H91:H100 H102:H130 H162:H180 H235:H248 H250:H1048576">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I235:J248 I250:J1048576 I1:J60 I203:J217 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J191 I91:J100 I162:J180 I193:J201 I219:J233">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I193:J201 I219:J233 I1:J60 I203:J217 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J191 I91:J100 I162:J180 I235:J248 I250:J1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E235:E248 E250:E1048576 E62:E73 E203:E217 E1:E60 E75:E89 E102:E130 E152:E160 E182:E191 E132:E150 E91:E100 E162:E180 E193:E201 E219:E233">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E193:E201 E219:E233 E62:E73 E203:E217 E1:E60 E75:E89 E102:E130 E152:E160 E182:E191 E132:E150 E91:E100 E162:E180 E235:E248 E250:E1048576">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
   </dataValidations>
